--- a/data/trans_bre/P20_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 1,32</t>
+          <t>-1,09; 9,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 3,5</t>
+          <t>-2,14; 9,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 4,96</t>
+          <t>-1,56; 15,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 8,72</t>
+          <t>-3,74; 19,7</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>-0,56%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 5,42</t>
+          <t>-5,22; 6,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 8,42</t>
+          <t>-6,92; 7,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 15,84</t>
+          <t>-7,83; 10,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 23,1</t>
+          <t>-10,98; 13,84</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,04</t>
+          <t>17,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,9%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,19%</t>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 0,78</t>
+          <t>-1,63; 22,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,8; -2,64</t>
+          <t>4,12; 30,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 2,1</t>
+          <t>-2,41; 48,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,18; -7,22</t>
+          <t>5,67; 64,89</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -0,53</t>
+          <t>-0,56; 6,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,85</t>
+          <t>-0,36; 8,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -1,31</t>
+          <t>-0,8; 10,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 4,6</t>
+          <t>-0,68; 15,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,48%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.086785147067717</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.728580452852613</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.06169620491664583</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0314301264298782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 9,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 9,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 15,3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 19,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.121427834420858</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.642375159877262</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.01545273457508145</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.0774135909435647</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.339596659235365</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.649604754066458</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1467237294965874</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1488857181893478</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 6,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 7,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 10,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,98; 13,84</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.9981441344235287</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5178969587950388</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01581938524900646</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.008926768813720825</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>32,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.607134303341265</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.402097127830425</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06922266827324178</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1041563015144216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 22,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 30,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 48,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 64,89</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.323998179558319</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.599475947696664</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1235503790198034</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1570452549070789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.58440909409628</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.23874075539927</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.1839804861178662</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2863742404602891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 6,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 8,32</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 10,97</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 15,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.5994404273111449</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.172666580540609</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.008000277417435361</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.04084291053973059</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>23.04206580920398</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.03802354572499</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.4702371956985093</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.6287484856841271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.7284142997001</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.855314211070537</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05832501963775101</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.05062155010219866</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.05054477142667603</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.342667323636839</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.0009223064890645274</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.0205884534444361</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.280912129184153</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.369906707596066</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1177049704433658</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1396694925035174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
